--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H2">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I2">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J2">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.44356366666667</v>
+        <v>8.461686666666667</v>
       </c>
       <c r="N2">
-        <v>46.330691</v>
+        <v>25.38506</v>
       </c>
       <c r="O2">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="P2">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="Q2">
-        <v>5907.578627024017</v>
+        <v>22.20791666052</v>
       </c>
       <c r="R2">
-        <v>53168.20764321615</v>
+        <v>199.87124994468</v>
       </c>
       <c r="S2">
-        <v>0.2512411801602131</v>
+        <v>0.01207226263231726</v>
       </c>
       <c r="T2">
-        <v>0.2512411801602131</v>
+        <v>0.01207226263231726</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H3">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I3">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J3">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>3.646629</v>
       </c>
       <c r="O3">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="P3">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="Q3">
-        <v>464.9779028999581</v>
+        <v>3.190224207618</v>
       </c>
       <c r="R3">
-        <v>4184.801126099623</v>
+        <v>28.712017868562</v>
       </c>
       <c r="S3">
-        <v>0.01977486961216395</v>
+        <v>0.001734211501198912</v>
       </c>
       <c r="T3">
-        <v>0.01977486961216395</v>
+        <v>0.001734211501198912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H4">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I4">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J4">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.17500933333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="N4">
-        <v>39.525028</v>
+        <v>50.681</v>
       </c>
       <c r="O4">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="P4">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="Q4">
-        <v>5039.795556801124</v>
+        <v>44.33786740199999</v>
       </c>
       <c r="R4">
-        <v>45358.16001121011</v>
+        <v>399.040806618</v>
       </c>
       <c r="S4">
-        <v>0.2143355617248504</v>
+        <v>0.02410214285364978</v>
       </c>
       <c r="T4">
-        <v>0.2143355617248503</v>
+        <v>0.02410214285364978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H5">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I5">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J5">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.02356833333333</v>
+        <v>18.58845466666667</v>
       </c>
       <c r="N5">
-        <v>69.070705</v>
+        <v>55.76536400000001</v>
       </c>
       <c r="O5">
-        <v>0.4355765604134518</v>
+        <v>0.4116191719997629</v>
       </c>
       <c r="P5">
-        <v>0.4355765604134518</v>
+        <v>0.411619171999763</v>
       </c>
       <c r="Q5">
-        <v>8807.134359629577</v>
+        <v>48.785882572488</v>
       </c>
       <c r="R5">
-        <v>79264.20923666621</v>
+        <v>439.072943152392</v>
       </c>
       <c r="S5">
-        <v>0.374555290761753</v>
+        <v>0.02652009173879321</v>
       </c>
       <c r="T5">
-        <v>0.3745552907617529</v>
+        <v>0.02652009173879321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.478947</v>
       </c>
       <c r="I6">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J6">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.44356366666667</v>
+        <v>8.461686666666667</v>
       </c>
       <c r="N6">
-        <v>46.330691</v>
+        <v>25.38506</v>
       </c>
       <c r="O6">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="P6">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="Q6">
-        <v>7.613404051375223</v>
+        <v>4.171462036868889</v>
       </c>
       <c r="R6">
-        <v>68.520636462377</v>
+        <v>37.54315833182</v>
       </c>
       <c r="S6">
-        <v>0.0003237875853491002</v>
+        <v>0.002267614114355343</v>
       </c>
       <c r="T6">
-        <v>0.0003237875853491002</v>
+        <v>0.002267614114355343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.478947</v>
       </c>
       <c r="I7">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J7">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>3.646629</v>
       </c>
       <c r="O7">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="P7">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="Q7">
         <v>0.599241224407</v>
@@ -883,10 +883,10 @@
         <v>5.393171019663</v>
       </c>
       <c r="S7">
-        <v>2.548490370182486E-05</v>
+        <v>0.0003257485855939481</v>
       </c>
       <c r="T7">
-        <v>2.548490370182486E-05</v>
+        <v>0.0003257485855939482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.478947</v>
       </c>
       <c r="I8">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J8">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.17500933333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="N8">
-        <v>39.525028</v>
+        <v>50.681</v>
       </c>
       <c r="O8">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="P8">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="Q8">
-        <v>6.495046842835111</v>
+        <v>8.328279211888889</v>
       </c>
       <c r="R8">
-        <v>58.455421585516</v>
+        <v>74.95451290699999</v>
       </c>
       <c r="S8">
-        <v>0.0002762253940260804</v>
+        <v>0.004527267256001881</v>
       </c>
       <c r="T8">
-        <v>0.0002762253940260803</v>
+        <v>0.004527267256001881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.478947</v>
       </c>
       <c r="I9">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J9">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.02356833333333</v>
+        <v>18.58845466666667</v>
       </c>
       <c r="N9">
-        <v>69.070705</v>
+        <v>55.76536400000001</v>
       </c>
       <c r="O9">
-        <v>0.4355765604134518</v>
+        <v>0.4116191719997629</v>
       </c>
       <c r="P9">
-        <v>0.4355765604134518</v>
+        <v>0.411619171999763</v>
       </c>
       <c r="Q9">
-        <v>11.35021243862611</v>
+        <v>9.163779754634223</v>
       </c>
       <c r="R9">
-        <v>102.151911947635</v>
+        <v>82.47401779170801</v>
       </c>
       <c r="S9">
-        <v>0.0004827088978731187</v>
+        <v>0.00498144682338995</v>
       </c>
       <c r="T9">
-        <v>0.0004827088978731187</v>
+        <v>0.004981446823389951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>0.419061</v>
       </c>
       <c r="I10">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J10">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.44356366666667</v>
+        <v>8.461686666666667</v>
       </c>
       <c r="N10">
-        <v>46.330691</v>
+        <v>25.38506</v>
       </c>
       <c r="O10">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="P10">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="Q10">
-        <v>2.157265077905667</v>
+        <v>1.181987625406667</v>
       </c>
       <c r="R10">
-        <v>19.415385701151</v>
+        <v>10.63788862866</v>
       </c>
       <c r="S10">
-        <v>9.174551170797821E-05</v>
+        <v>0.0006425305561158474</v>
       </c>
       <c r="T10">
-        <v>9.174551170797821E-05</v>
+        <v>0.0006425305561158474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.419061</v>
       </c>
       <c r="I11">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J11">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,10 +1119,10 @@
         <v>3.646629</v>
       </c>
       <c r="O11">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="P11">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="Q11">
         <v>0.169795555041</v>
@@ -1131,10 +1131,10 @@
         <v>1.528159995369</v>
       </c>
       <c r="S11">
-        <v>7.221171029246096E-06</v>
+        <v>9.230116294064998E-05</v>
       </c>
       <c r="T11">
-        <v>7.221171029246096E-06</v>
+        <v>9.230116294065E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.419061</v>
       </c>
       <c r="I12">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J12">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.17500933333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="N12">
-        <v>39.525028</v>
+        <v>50.681</v>
       </c>
       <c r="O12">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="P12">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="Q12">
-        <v>1.840377528745333</v>
+        <v>2.359825615666666</v>
       </c>
       <c r="R12">
-        <v>16.563397758708</v>
+        <v>21.238430541</v>
       </c>
       <c r="S12">
-        <v>7.826872081688067E-05</v>
+        <v>0.001282805363253317</v>
       </c>
       <c r="T12">
-        <v>7.826872081688067E-05</v>
+        <v>0.001282805363253318</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.419061</v>
       </c>
       <c r="I13">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J13">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.02356833333333</v>
+        <v>18.58845466666667</v>
       </c>
       <c r="N13">
-        <v>69.070705</v>
+        <v>55.76536400000001</v>
       </c>
       <c r="O13">
-        <v>0.4355765604134518</v>
+        <v>0.4116191719997629</v>
       </c>
       <c r="P13">
-        <v>0.4355765604134518</v>
+        <v>0.411619171999763</v>
       </c>
       <c r="Q13">
-        <v>3.216093189778333</v>
+        <v>2.596565467022667</v>
       </c>
       <c r="R13">
-        <v>28.944838708005</v>
+        <v>23.369089203204</v>
       </c>
       <c r="S13">
-        <v>0.0001367760125627267</v>
+        <v>0.001411497563642657</v>
       </c>
       <c r="T13">
-        <v>0.0001367760125627267</v>
+        <v>0.001411497563642657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H14">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I14">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J14">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.44356366666667</v>
+        <v>8.461686666666667</v>
       </c>
       <c r="N14">
-        <v>46.330691</v>
+        <v>25.38506</v>
       </c>
       <c r="O14">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="P14">
-        <v>0.2921725357712574</v>
+        <v>0.1873739652872041</v>
       </c>
       <c r="Q14">
-        <v>952.6718788189853</v>
+        <v>317.1284016342044</v>
       </c>
       <c r="R14">
-        <v>8574.046909370867</v>
+        <v>2854.15561470784</v>
       </c>
       <c r="S14">
-        <v>0.04051582251398723</v>
+        <v>0.1723915579844157</v>
       </c>
       <c r="T14">
-        <v>0.04051582251398722</v>
+        <v>0.1723915579844157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H15">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I15">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J15">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>3.646629</v>
       </c>
       <c r="O15">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="P15">
-        <v>0.02299652387975402</v>
+        <v>0.02691675086296081</v>
       </c>
       <c r="Q15">
-        <v>74.98357623860601</v>
+        <v>45.556308557984</v>
       </c>
       <c r="R15">
-        <v>674.8521861474541</v>
+        <v>410.006777021856</v>
       </c>
       <c r="S15">
-        <v>0.003188948192859</v>
+        <v>0.0247644896132273</v>
       </c>
       <c r="T15">
-        <v>0.003188948192858999</v>
+        <v>0.0247644896132273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H16">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I16">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J16">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.17500933333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="N16">
-        <v>39.525028</v>
+        <v>50.681</v>
       </c>
       <c r="O16">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="P16">
-        <v>0.2492543799355367</v>
+        <v>0.3740901118500721</v>
       </c>
       <c r="Q16">
-        <v>812.7308674315476</v>
+        <v>633.1434522204443</v>
       </c>
       <c r="R16">
-        <v>7314.577806883929</v>
+        <v>5698.291069983999</v>
       </c>
       <c r="S16">
-        <v>0.03456432409584341</v>
+        <v>0.3441778963771671</v>
       </c>
       <c r="T16">
-        <v>0.0345643240958434</v>
+        <v>0.3441778963771672</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H17">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I17">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J17">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.02356833333333</v>
+        <v>18.58845466666667</v>
       </c>
       <c r="N17">
-        <v>69.070705</v>
+        <v>55.76536400000001</v>
       </c>
       <c r="O17">
-        <v>0.4355765604134518</v>
+        <v>0.4116191719997629</v>
       </c>
       <c r="P17">
-        <v>0.4355765604134518</v>
+        <v>0.411619171999763</v>
       </c>
       <c r="Q17">
-        <v>1420.261966386426</v>
+        <v>696.6609790116551</v>
       </c>
       <c r="R17">
-        <v>12782.35769747783</v>
+        <v>6269.948811104896</v>
       </c>
       <c r="S17">
-        <v>0.06040178474126297</v>
+        <v>0.3787061358739371</v>
       </c>
       <c r="T17">
-        <v>0.06040178474126297</v>
+        <v>0.3787061358739372</v>
       </c>
     </row>
   </sheetData>
